--- a/inst/extdata/COP24_PSNUxIM_Template.xlsx
+++ b/inst/extdata/COP24_PSNUxIM_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandomaas/Documents/GitHub/datapackr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32D875-2664-1144-A2DF-45C0DF33022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD550129-EBCC-7B49-B45D-E04BB97D973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40220" yWindow="-2060" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <t>Deduplicated TA Rollup</t>
   </si>
   <si>
-    <t>COP23 Year 2 Data Pack</t>
+    <t>COP23 Year 2 PSNUxIM Tool</t>
   </si>
 </sst>
 </file>
@@ -634,20 +634,20 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -1226,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1268,9 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7975,11 +7973,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT14">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(ROW(CT14)&gt;14,LEFT($B14,4)="_Mil")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(ISNUMBER(CT14),CT14&lt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(ROW(CT14)&gt;14,LEFT($B14,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU2:CU13 CU15:CU1048576">

--- a/inst/extdata/COP24_PSNUxIM_Template.xlsx
+++ b/inst/extdata/COP24_PSNUxIM_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/datapackr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandomaas/Documents/GitHub/datapackr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD550129-EBCC-7B49-B45D-E04BB97D973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E3044-D34B-E64E-B74F-E3E45E97B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="MIN_DSD" localSheetId="1">ROUND(MAX(IF(ISNUMBER(FIND("DSD",PSNUxIM!$CW$14:$FS$14)),PSNUxIM!$CW1:$FS1)),1)</definedName>
     <definedName name="MIN_TA" localSheetId="1">ROUND(MAX(IF(ISNUMBER(FIND("TA",PSNUxIM!$CW$14:$FS$14)),PSNUxIM!$CW1:$FS1)),1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -203,7 +203,7 @@
     <t>Deduplicated TA Rollup</t>
   </si>
   <si>
-    <t>COP23 Year 2 PSNUxIM Tool</t>
+    <t>FY25 PSNUxIM Tool</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1227,7 @@
   <dimension ref="B2:B25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
